--- a/figure/figure.xlsx
+++ b/figure/figure.xlsx
@@ -5,16 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kagawaverif-my.sharepoint.com/personal/s21t317_kagawa-u_ac_jp/Documents/デスクトップ/MyFolder/研究室/年末発表/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kagawaverif-my.sharepoint.com/personal/s21t317_kagawa-u_ac_jp/Documents/デスクトップ/MyFolder/研究室/年末発表/figure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_AD4D066CA252ABDACC10488B1114D3B673EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B7F60E7-7FA1-4F94-A52C-49A8264E1344}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="11_AD4D066CA252ABDACC10488B1114D3B673EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C63657A-27D1-4114-B746-14AF7DE9D5C3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>2級</t>
   </si>
@@ -89,6 +93,33 @@
   </si>
   <si>
     <t>文字単語新密度</t>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロジスティック回帰</t>
+    <rPh sb="7" eb="9">
+      <t>カイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムフォレスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uni</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>both</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2129,6 +2160,1906 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uni</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ロジスティック回帰</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ランダムフォレスト</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82186999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88436999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EBB-4819-8BAE-3613E106A27A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ロジスティック回帰</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ランダムフォレスト</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.74987999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70872999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79815999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1EBB-4819-8BAE-3613E106A27A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>both</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ロジスティック回帰</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ランダムフォレスト</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81149000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85299000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1EBB-4819-8BAE-3613E106A27A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1211899087"/>
+        <c:axId val="1211899567"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1211899087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1211899567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1211899567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1211899087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Precision</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uni</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ロジスティック回帰</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ランダムフォレスト</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.83965999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83965999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90078000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C4E-4D75-B389-E15A445ECC25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ロジスティック回帰</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ランダムフォレスト</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78705000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70560999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83958999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C4E-4D75-B389-E15A445ECC25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>both</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ロジスティック回帰</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ランダムフォレスト</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.83181000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88239000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C4E-4D75-B389-E15A445ECC25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="286915071"/>
+        <c:axId val="286890591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="286915071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286890591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="286890591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286915071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Recall</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uni</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ロジスティック回帰</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ランダムフォレスト</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.79986000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79986000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86170999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9437-4EB9-A1EE-2079A10CC5C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ロジスティック回帰</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ランダムフォレスト</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.68781999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71675999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9437-4EB9-A1EE-2079A10CC5C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>both</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ロジスティック回帰</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ランダムフォレスト</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.77125999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82715000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9437-4EB9-A1EE-2079A10CC5C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="289345039"/>
+        <c:axId val="289330159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="289345039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289330159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="289330159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289345039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>F1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uni</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ロジスティック回帰</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ランダムフォレスト</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81293000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81293000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87773000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3064-47D0-8E20-F6B1B3F7F9D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ロジスティック回帰</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ランダムフォレスト</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.72779000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70431999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78715000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3064-47D0-8E20-F6B1B3F7F9D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>both</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ロジスティック回帰</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ランダムフォレスト</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.79581999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78444000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84838999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3064-47D0-8E20-F6B1B3F7F9D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="295892111"/>
+        <c:axId val="295893071"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="295892111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="295893071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="295893071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="295892111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2209,6 +4140,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2726,6 +4817,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3303,6 +7458,170 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A4BBA0-1D97-680D-9C9F-640306C96439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817C86E2-491A-0E98-BBC5-29062DBDAB74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022F5046-3773-B35E-EF96-3D858C510A4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01203158-E65B-4A5D-BA04-6BBE5F7E27EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E723BE-F0E4-3193-58E8-A6F90B81C2D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3921,7 +8240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F50698-FEF7-4324-96AF-0068C7BB3A3E}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
@@ -4056,4 +8375,284 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B609580-E571-4DBF-AEA2-9B312E164D08}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>0.84375</v>
+      </c>
+      <c r="C2">
+        <v>0.74987999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.81149000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0.82186999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.70872999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.78747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0.88436999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.79815999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.85299000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E69E732-D8F9-44A7-8A1D-25E52CA866C7}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>0.83965999999999996</v>
+      </c>
+      <c r="C2">
+        <v>0.78705000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0.83181000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0.83965999999999996</v>
+      </c>
+      <c r="C3">
+        <v>0.70560999999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.80628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0.90078000000000003</v>
+      </c>
+      <c r="C4">
+        <v>0.83958999999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.88239000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A08013-8596-4742-A12F-2B271636C925}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>0.79986000000000002</v>
+      </c>
+      <c r="C2">
+        <v>0.68781999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.77125999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0.79986000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.71675999999999995</v>
+      </c>
+      <c r="D3">
+        <v>0.77480000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0.86170999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.75444</v>
+      </c>
+      <c r="D4">
+        <v>0.82715000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A1EBF0-9E5A-4DC9-AAE8-E67138B5FF8B}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>0.81293000000000004</v>
+      </c>
+      <c r="C2">
+        <v>0.72779000000000005</v>
+      </c>
+      <c r="D2">
+        <v>0.79581999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0.81293000000000004</v>
+      </c>
+      <c r="C3">
+        <v>0.70431999999999995</v>
+      </c>
+      <c r="D3">
+        <v>0.78444000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0.87773000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.78715000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.84838999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>